--- a/甘特图.xlsx
+++ b/甘特图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="20328" windowHeight="8675"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>任务名称</t>
   </si>
@@ -36,25 +36,22 @@
     <t>系统设计与文档编写</t>
   </si>
   <si>
-    <t>扩建与度假村的显示</t>
-  </si>
-  <si>
     <t>建筑系统</t>
   </si>
   <si>
-    <t>游客系统</t>
+    <t>顾客系统</t>
   </si>
   <si>
-    <t>比赛系统</t>
+    <t>评分系统</t>
   </si>
   <si>
-    <t>招募与研究进修系统</t>
+    <t>关卡设计</t>
   </si>
   <si>
     <t>测试与DEBUG</t>
   </si>
   <si>
-    <t>结算系统</t>
+    <t>界面绘制</t>
   </si>
 </sst>
 </file>
@@ -62,9 +59,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
@@ -86,13 +83,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -101,14 +91,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,66 +106,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,9 +135,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,187 +235,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,13 +451,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,6 +471,26 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,15 +510,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -509,6 +521,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,30 +548,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -559,10 +556,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -571,19 +568,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -592,112 +589,112 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -848,12 +845,12 @@
             <c:noEndCap val="1"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$B$3:$B$9</c:f>
+                <c:f>Sheet1!$B$3:$B$8</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="7"/>
+                  <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>2.4</c:v>
+                    <c:v>1.6</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0</c:v>
@@ -870,9 +867,6 @@
                   <c:pt idx="5">
                     <c:v>0</c:v>
                   </c:pt>
-                  <c:pt idx="6">
-                    <c:v>0</c:v>
-                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
@@ -887,7 +881,7 @@
             </c:minus>
             <c:spPr>
               <a:noFill/>
-              <a:ln w="215900" cap="flat" cmpd="sng" algn="ctr">
+              <a:ln w="254000" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -902,65 +896,59 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$3:$C$10</c:f>
+              <c:f>Sheet1!$C$3:$C$9</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>系统设计与文档编写</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>扩建与度假村的显示</c:v>
+                  <c:v>建筑系统</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>建筑系统</c:v>
+                  <c:v>顾客系统</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>游客系统</c:v>
+                  <c:v>评分系统</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>比赛系统</c:v>
+                  <c:v>关卡设计</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>招募与研究进修系统</c:v>
+                  <c:v>测试与DEBUG</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>测试与DEBUG</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>结算系统</c:v>
+                  <c:v>界面绘制</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$10</c:f>
+              <c:f>Sheet1!$D$3:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>44228</c:v>
+                  <c:v>44231</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44231</c:v>
+                  <c:v>44233</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44233</c:v>
+                  <c:v>44241</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44241</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>44249</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44251</c:v>
+                  <c:v>44255</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44255</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44231</c:v>
+                  <c:v>44232</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -995,64 +983,58 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$3:$C$10</c:f>
+              <c:f>Sheet1!$C$3:$C$9</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>系统设计与文档编写</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>扩建与度假村的显示</c:v>
+                  <c:v>建筑系统</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>建筑系统</c:v>
+                  <c:v>顾客系统</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>游客系统</c:v>
+                  <c:v>评分系统</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>比赛系统</c:v>
+                  <c:v>关卡设计</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>招募与研究进修系统</c:v>
+                  <c:v>测试与DEBUG</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>测试与DEBUG</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>结算系统</c:v>
+                  <c:v>界面绘制</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$10</c:f>
+              <c:f>Sheet1!$E$3:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
@@ -1067,7 +1049,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="50"/>
+        <c:gapWidth val="25"/>
         <c:overlap val="100"/>
         <c:axId val="486564639"/>
         <c:axId val="982224888"/>
@@ -1127,7 +1109,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="44258"/>
-          <c:min val="44228"/>
+          <c:min val="44231"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -1811,7 +1793,7 @@
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>427355</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>241300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
@@ -1820,8 +1802,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4752975" y="254000"/>
-        <a:ext cx="11457305" cy="3289300"/>
+        <a:off x="4329430" y="254000"/>
+        <a:ext cx="10302875" cy="2971800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2121,15 +2103,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:G11"/>
+  <dimension ref="B2:G10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9.375" customWidth="1"/>
+    <col min="1" max="1" width="9.37962962962963" customWidth="1"/>
     <col min="2" max="2" width="0.25" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
   </cols>
@@ -2154,20 +2136,20 @@
     <row r="3" ht="25" customHeight="1" spans="2:7">
       <c r="B3">
         <f>E3*G3</f>
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="4">
-        <v>44228</v>
+        <v>44231</v>
       </c>
       <c r="E3" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ref="F3:F10" si="0">D3+E3-1</f>
-        <v>44230</v>
+        <v>44232</v>
       </c>
       <c r="G3" s="6">
         <v>0.8</v>
@@ -2182,15 +2164,15 @@
         <v>6</v>
       </c>
       <c r="D4" s="8">
-        <f t="shared" ref="D4:D9" si="1">F3+1</f>
-        <v>44231</v>
+        <f>F3+1</f>
+        <v>44233</v>
       </c>
       <c r="E4" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" si="0"/>
-        <v>44232</v>
+        <v>44240</v>
       </c>
       <c r="G4" s="9">
         <v>0</v>
@@ -2201,19 +2183,19 @@
         <f>E5*G5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="8">
-        <f t="shared" si="1"/>
-        <v>44233</v>
+        <f>F4+1</f>
+        <v>44241</v>
       </c>
       <c r="E5" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="0"/>
-        <v>44240</v>
+        <v>44246</v>
       </c>
       <c r="G5" s="9">
         <v>0</v>
@@ -2228,11 +2210,11 @@
         <v>8</v>
       </c>
       <c r="D6" s="8">
-        <f t="shared" si="1"/>
-        <v>44241</v>
+        <f>F5+1</f>
+        <v>44247</v>
       </c>
       <c r="E6" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F6" s="8">
         <f t="shared" si="0"/>
@@ -2244,22 +2226,22 @@
     </row>
     <row r="7" ht="25" customHeight="1" spans="2:7">
       <c r="B7">
-        <f>E10*G7</f>
+        <f>E9*G7</f>
         <v>0</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="8">
-        <f t="shared" si="1"/>
+        <f>F6+1</f>
         <v>44249</v>
       </c>
       <c r="E7" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" si="0"/>
-        <v>44250</v>
+        <v>44254</v>
       </c>
       <c r="G7" s="9">
         <v>0</v>
@@ -2270,67 +2252,44 @@
         <f>E7*G8</f>
         <v>0</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="8">
-        <f t="shared" si="1"/>
-        <v>44251</v>
+        <f>F7+1</f>
+        <v>44255</v>
       </c>
       <c r="E8" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" si="0"/>
-        <v>44254</v>
+        <v>44257</v>
       </c>
       <c r="G8" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="25" customHeight="1" spans="2:7">
-      <c r="B9">
-        <f>E8*G9</f>
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="9" customHeight="1" spans="3:7">
+      <c r="C9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="8">
-        <f t="shared" si="1"/>
+        <v>44232</v>
+      </c>
+      <c r="E9" s="7">
+        <v>24</v>
+      </c>
+      <c r="F9" s="8">
+        <f>D9+E9-1</f>
         <v>44255</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9" s="8">
-        <f t="shared" si="0"/>
-        <v>44257</v>
       </c>
       <c r="G9" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="3:7">
-      <c r="C10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="8">
-        <v>44231</v>
-      </c>
-      <c r="E10" s="7">
-        <v>24</v>
-      </c>
-      <c r="F10" s="8">
-        <f t="shared" si="0"/>
-        <v>44254</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="3:3">
-      <c r="C11" s="10"/>
+    <row r="10" customHeight="1" spans="3:3">
+      <c r="C10" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2349,7 +2308,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2366,7 +2325,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/甘特图.xlsx
+++ b/甘特图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20328" windowHeight="8675"/>
+    <workbookView windowWidth="16428" windowHeight="8675"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,11 +59,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m/d;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -83,6 +83,80 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -92,20 +166,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,75 +196,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,6 +217,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -235,19 +235,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,163 +415,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,50 +451,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -506,6 +462,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,15 +490,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -548,6 +504,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -556,10 +556,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -568,133 +568,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -845,10 +845,10 @@
             <c:noEndCap val="1"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$B$3:$B$8</c:f>
+                <c:f>Sheet1!$B$3:$B$9</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="6"/>
+                  <c:ptCount val="7"/>
                   <c:pt idx="0">
                     <c:v>1.6</c:v>
                   </c:pt>
@@ -866,6 +866,9 @@
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1802,7 +1805,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4329430" y="254000"/>
+        <a:off x="4634865" y="254000"/>
         <a:ext cx="10302875" cy="2971800"/>
       </xdr:xfrm>
       <a:graphic>
@@ -2106,13 +2109,13 @@
   <dimension ref="B2:G10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9.37962962962963" customWidth="1"/>
-    <col min="2" max="2" width="0.25" customWidth="1"/>
+    <col min="2" max="2" width="4.7037037037037" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2226,7 +2229,7 @@
     </row>
     <row r="7" ht="25" customHeight="1" spans="2:7">
       <c r="B7">
-        <f>E9*G7</f>
+        <f>E7*G7</f>
         <v>0</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -2249,7 +2252,7 @@
     </row>
     <row r="8" ht="25" customHeight="1" spans="2:7">
       <c r="B8">
-        <f>E7*G8</f>
+        <f>E8*G8</f>
         <v>0</v>
       </c>
       <c r="C8" t="s">
@@ -2270,7 +2273,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="3:7">
+    <row r="9" customHeight="1" spans="2:7">
+      <c r="B9">
+        <f>E9*G9</f>
+        <v>1.2</v>
+      </c>
       <c r="C9" s="7" t="s">
         <v>11</v>
       </c>
@@ -2281,11 +2288,11 @@
         <v>24</v>
       </c>
       <c r="F9" s="8">
-        <f>D9+E9-1</f>
+        <f t="shared" si="0"/>
         <v>44255</v>
       </c>
       <c r="G9" s="9">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="3:3">

--- a/甘特图.xlsx
+++ b/甘特图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16428" windowHeight="8675"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,11 +59,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="m/d;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m/d;@"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -82,6 +82,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -90,7 +122,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,14 +144,45 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -128,20 +191,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,40 +205,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,30 +225,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -235,19 +235,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,7 +379,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,145 +415,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,6 +451,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -466,15 +481,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -486,32 +492,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,9 +513,29 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,10 +556,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -568,133 +568,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -850,10 +850,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="7"/>
                   <c:pt idx="0">
-                    <c:v>1.6</c:v>
+                    <c:v>1.7</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>2</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>0</c:v>
@@ -868,7 +868,7 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1.2</c:v>
+                    <c:v>3.6</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1805,8 +1805,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4634865" y="254000"/>
-        <a:ext cx="10302875" cy="2971800"/>
+        <a:off x="5092700" y="254000"/>
+        <a:ext cx="11457305" cy="2971800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2109,13 +2109,13 @@
   <dimension ref="B2:G10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9.37962962962963" customWidth="1"/>
-    <col min="2" max="2" width="4.7037037037037" customWidth="1"/>
+    <col min="1" max="1" width="9.38333333333333" customWidth="1"/>
+    <col min="2" max="2" width="4.7" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2138,8 +2138,8 @@
     </row>
     <row r="3" ht="25" customHeight="1" spans="2:7">
       <c r="B3">
-        <f>E3*G3</f>
-        <v>1.6</v>
+        <f t="shared" ref="B3:B9" si="0">E3*G3</f>
+        <v>1.7</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>5</v>
@@ -2151,17 +2151,17 @@
         <v>2</v>
       </c>
       <c r="F3" s="5">
-        <f t="shared" ref="F3:F10" si="0">D3+E3-1</f>
+        <f t="shared" ref="F3:F10" si="1">D3+E3-1</f>
         <v>44232</v>
       </c>
       <c r="G3" s="6">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="4" ht="25" customHeight="1" spans="2:7">
       <c r="B4">
-        <f>E4*G4</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>6</v>
@@ -2174,16 +2174,16 @@
         <v>8</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44240</v>
       </c>
       <c r="G4" s="9">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" ht="25" customHeight="1" spans="2:7">
       <c r="B5">
-        <f>E5*G5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C5" t="s">
@@ -2197,7 +2197,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44246</v>
       </c>
       <c r="G5" s="9">
@@ -2206,7 +2206,7 @@
     </row>
     <row r="6" ht="25" customHeight="1" spans="2:7">
       <c r="B6">
-        <f>E6*G6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -2220,7 +2220,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44248</v>
       </c>
       <c r="G6" s="9">
@@ -2229,7 +2229,7 @@
     </row>
     <row r="7" ht="25" customHeight="1" spans="2:7">
       <c r="B7">
-        <f>E7*G7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -2243,7 +2243,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44254</v>
       </c>
       <c r="G7" s="9">
@@ -2252,7 +2252,7 @@
     </row>
     <row r="8" ht="25" customHeight="1" spans="2:7">
       <c r="B8">
-        <f>E8*G8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C8" t="s">
@@ -2266,7 +2266,7 @@
         <v>3</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44257</v>
       </c>
       <c r="G8" s="9">
@@ -2275,8 +2275,8 @@
     </row>
     <row r="9" customHeight="1" spans="2:7">
       <c r="B9">
-        <f>E9*G9</f>
-        <v>1.2</v>
+        <f t="shared" si="0"/>
+        <v>3.6</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>11</v>
@@ -2288,11 +2288,11 @@
         <v>24</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44255</v>
       </c>
       <c r="G9" s="9">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="3:3">
@@ -2315,7 +2315,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2332,7 +2332,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/甘特图.xlsx
+++ b/甘特图.xlsx
@@ -60,10 +60,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -82,33 +82,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,6 +91,28 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,38 +133,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,14 +149,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,10 +164,58 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -218,13 +225,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -235,61 +235,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,49 +391,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,67 +409,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,6 +447,50 @@
       </top>
       <bottom style="thin">
         <color theme="0" tint="-0.15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,17 +525,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,44 +548,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -556,10 +556,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -568,133 +568,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -853,7 +853,7 @@
                     <c:v>1.7</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2</c:v>
+                    <c:v>2.8</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>0</c:v>
@@ -868,7 +868,7 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>3.6</c:v>
+                    <c:v>7.2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2109,7 +2109,7 @@
   <dimension ref="B2:G10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="6"/>
@@ -2161,7 +2161,7 @@
     <row r="4" ht="25" customHeight="1" spans="2:7">
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>6</v>
@@ -2178,7 +2178,7 @@
         <v>44240</v>
       </c>
       <c r="G4" s="9">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="5" ht="25" customHeight="1" spans="2:7">
@@ -2276,7 +2276,7 @@
     <row r="9" customHeight="1" spans="2:7">
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>3.6</v>
+        <v>7.2</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>11</v>
@@ -2292,7 +2292,7 @@
         <v>44255</v>
       </c>
       <c r="G9" s="9">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="3:3">

--- a/甘特图.xlsx
+++ b/甘特图.xlsx
@@ -82,8 +82,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -97,22 +121,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,8 +141,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,41 +158,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -203,19 +188,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -225,6 +218,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -235,187 +235,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,6 +461,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -477,15 +492,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -495,17 +501,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,15 +525,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -548,6 +539,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -556,10 +556,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -568,133 +568,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -853,7 +853,7 @@
                     <c:v>1.7</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.8</c:v>
+                    <c:v>3.6</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>0</c:v>
@@ -868,7 +868,7 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>7.2</c:v>
+                    <c:v>8.4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2109,7 +2109,7 @@
   <dimension ref="B2:G10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="6"/>
@@ -2161,7 +2161,7 @@
     <row r="4" ht="25" customHeight="1" spans="2:7">
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>6</v>
@@ -2178,7 +2178,7 @@
         <v>44240</v>
       </c>
       <c r="G4" s="9">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="5" ht="25" customHeight="1" spans="2:7">
@@ -2276,7 +2276,7 @@
     <row r="9" customHeight="1" spans="2:7">
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>7.2</v>
+        <v>8.4</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>11</v>
@@ -2292,7 +2292,7 @@
         <v>44255</v>
       </c>
       <c r="G9" s="9">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="3:3">

--- a/甘特图.xlsx
+++ b/甘特图.xlsx
@@ -59,11 +59,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m/d;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -83,31 +83,29 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,7 +126,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,18 +147,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -180,19 +171,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -205,15 +212,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,37 +235,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,145 +385,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,17 +460,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,23 +498,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,11 +534,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,10 +556,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -568,133 +568,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -853,7 +853,7 @@
                     <c:v>1.7</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.6</c:v>
+                    <c:v>6</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>0</c:v>
@@ -868,7 +868,7 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>8.4</c:v>
+                    <c:v>10.8</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2161,7 +2161,7 @@
     <row r="4" ht="25" customHeight="1" spans="2:7">
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>6</v>
@@ -2178,7 +2178,7 @@
         <v>44240</v>
       </c>
       <c r="G4" s="9">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="5" ht="25" customHeight="1" spans="2:7">
@@ -2276,7 +2276,7 @@
     <row r="9" customHeight="1" spans="2:7">
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>8.4</v>
+        <v>10.8</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>11</v>
@@ -2292,7 +2292,7 @@
         <v>44255</v>
       </c>
       <c r="G9" s="9">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="3:3">

--- a/甘特图.xlsx
+++ b/甘特图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="17295" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,10 +60,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m/d;@"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -82,28 +82,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -119,29 +97,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,6 +127,89 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -186,45 +225,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -235,13 +235,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,13 +331,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,13 +403,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,133 +415,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,24 +451,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -486,11 +468,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,7 +479,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,17 +499,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,6 +533,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -556,10 +556,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -568,133 +568,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -868,7 +868,7 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>10.8</c:v>
+                    <c:v>12</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2276,7 +2276,7 @@
     <row r="9" customHeight="1" spans="2:7">
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>10.8</v>
+        <v>12</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>11</v>
@@ -2292,7 +2292,7 @@
         <v>44255</v>
       </c>
       <c r="G9" s="9">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="3:3">

--- a/甘特图.xlsx
+++ b/甘特图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17295" windowHeight="11790"/>
+    <workbookView windowWidth="16428" windowHeight="8675"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,9 +59,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
@@ -90,14 +90,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,29 +138,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -156,39 +163,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,14 +173,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,6 +193,38 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -235,13 +235,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,7 +361,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,157 +415,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,26 +451,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,6 +465,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,6 +499,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -506,15 +521,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,17 +540,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,10 +556,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -568,133 +568,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -853,10 +853,10 @@
                     <c:v>1.7</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>6</c:v>
+                    <c:v>6.4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>0.9</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>0</c:v>
@@ -868,7 +868,7 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>12</c:v>
+                    <c:v>14.4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1805,8 +1805,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5092700" y="254000"/>
-        <a:ext cx="11457305" cy="2971800"/>
+        <a:off x="4634865" y="254000"/>
+        <a:ext cx="10302875" cy="2971800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2109,13 +2109,13 @@
   <dimension ref="B2:G10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9.38333333333333" customWidth="1"/>
-    <col min="2" max="2" width="4.7" customWidth="1"/>
+    <col min="1" max="1" width="9.37962962962963" customWidth="1"/>
+    <col min="2" max="2" width="4.7037037037037" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2161,7 +2161,7 @@
     <row r="4" ht="25" customHeight="1" spans="2:7">
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>6</v>
@@ -2178,13 +2178,13 @@
         <v>44240</v>
       </c>
       <c r="G4" s="9">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5" ht="25" customHeight="1" spans="2:7">
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -2201,7 +2201,7 @@
         <v>44246</v>
       </c>
       <c r="G5" s="9">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="6" ht="25" customHeight="1" spans="2:7">
@@ -2276,7 +2276,7 @@
     <row r="9" customHeight="1" spans="2:7">
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14.4</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>11</v>
@@ -2292,7 +2292,7 @@
         <v>44255</v>
       </c>
       <c r="G9" s="9">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="3:3">
@@ -2315,7 +2315,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2332,7 +2332,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/甘特图.xlsx
+++ b/甘特图.xlsx
@@ -59,11 +59,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="m/d;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -83,7 +83,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -97,7 +119,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,61 +186,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,28 +219,12 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -235,187 +235,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,24 +451,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -484,17 +466,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,10 +492,17 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -542,9 +525,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,10 +556,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -568,133 +568,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -853,10 +853,10 @@
                     <c:v>1.7</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>6.4</c:v>
+                    <c:v>6.8</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.9</c:v>
+                    <c:v>1.2</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>0</c:v>
@@ -868,7 +868,7 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>14.4</c:v>
+                    <c:v>16.8</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1805,7 +1805,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4634865" y="254000"/>
+        <a:off x="4356735" y="254000"/>
         <a:ext cx="10302875" cy="2971800"/>
       </xdr:xfrm>
       <a:graphic>
@@ -2109,13 +2109,13 @@
   <dimension ref="B2:G10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9.37962962962963" customWidth="1"/>
-    <col min="2" max="2" width="4.7037037037037" customWidth="1"/>
+    <col min="2" max="2" width="0.648148148148148" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2161,7 +2161,7 @@
     <row r="4" ht="25" customHeight="1" spans="2:7">
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>6</v>
@@ -2178,13 +2178,13 @@
         <v>44240</v>
       </c>
       <c r="G4" s="9">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="5" ht="25" customHeight="1" spans="2:7">
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -2201,7 +2201,7 @@
         <v>44246</v>
       </c>
       <c r="G5" s="9">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6" ht="25" customHeight="1" spans="2:7">
@@ -2276,7 +2276,7 @@
     <row r="9" customHeight="1" spans="2:7">
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>14.4</v>
+        <v>16.8</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>11</v>
@@ -2292,7 +2292,7 @@
         <v>44255</v>
       </c>
       <c r="G9" s="9">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="3:3">

--- a/甘特图.xlsx
+++ b/甘特图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16428" windowHeight="8675"/>
+    <workbookView windowWidth="17295" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,10 +60,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -82,52 +82,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,21 +129,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -180,15 +144,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,17 +175,54 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -235,55 +235,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,127 +415,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,26 +451,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,11 +484,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,6 +514,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -533,21 +548,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -556,10 +556,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -568,133 +568,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -856,7 +856,7 @@
                     <c:v>6.8</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.2</c:v>
+                    <c:v>3.6</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>0</c:v>
@@ -1805,8 +1805,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4356735" y="254000"/>
-        <a:ext cx="10302875" cy="2971800"/>
+        <a:off x="4784090" y="254000"/>
+        <a:ext cx="11457305" cy="2971800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2109,13 +2109,13 @@
   <dimension ref="B2:G10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9.37962962962963" customWidth="1"/>
-    <col min="2" max="2" width="0.648148148148148" customWidth="1"/>
+    <col min="1" max="1" width="9.38333333333333" customWidth="1"/>
+    <col min="2" max="2" width="0.65" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2184,7 +2184,7 @@
     <row r="5" ht="25" customHeight="1" spans="2:7">
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -2201,7 +2201,7 @@
         <v>44246</v>
       </c>
       <c r="G5" s="9">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="6" ht="25" customHeight="1" spans="2:7">
@@ -2315,7 +2315,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2332,7 +2332,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/甘特图.xlsx
+++ b/甘特图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17295" windowHeight="11790"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,9 +61,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -79,6 +79,28 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -98,7 +120,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,30 +202,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,59 +225,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -235,13 +235,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,7 +349,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,151 +409,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,6 +454,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -475,11 +499,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,45 +529,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -548,6 +539,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -556,10 +556,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -568,133 +568,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -856,16 +856,16 @@
                     <c:v>6.8</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3.6</c:v>
+                    <c:v>4.2</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>0.6</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0</c:v>
+                    <c:v>0.15</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>16.8</c:v>
@@ -2184,7 +2184,7 @@
     <row r="5" ht="25" customHeight="1" spans="2:7">
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -2201,7 +2201,7 @@
         <v>44246</v>
       </c>
       <c r="G5" s="9">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="6" ht="25" customHeight="1" spans="2:7">
@@ -2230,7 +2230,7 @@
     <row r="7" ht="25" customHeight="1" spans="2:7">
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>9</v>
@@ -2247,13 +2247,13 @@
         <v>44254</v>
       </c>
       <c r="G7" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="8" ht="25" customHeight="1" spans="2:7">
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -2270,7 +2270,7 @@
         <v>44257</v>
       </c>
       <c r="G8" s="9">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:7">

--- a/甘特图.xlsx
+++ b/甘特图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="16428" windowHeight="8675"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,10 +60,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -79,28 +79,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -127,6 +105,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -134,7 +134,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,40 +157,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -197,14 +174,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,6 +194,37 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -235,187 +235,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,8 +454,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,15 +493,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -499,17 +508,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,22 +534,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,10 +556,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -568,133 +568,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -856,7 +856,7 @@
                     <c:v>6.8</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>4.2</c:v>
+                    <c:v>4.5</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>0</c:v>
@@ -868,7 +868,7 @@
                     <c:v>0.15</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>16.8</c:v>
+                    <c:v>18</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1805,8 +1805,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4784090" y="254000"/>
-        <a:ext cx="11457305" cy="2971800"/>
+        <a:off x="4356735" y="254000"/>
+        <a:ext cx="10302875" cy="2971800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2114,8 +2114,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9.38333333333333" customWidth="1"/>
-    <col min="2" max="2" width="0.65" customWidth="1"/>
+    <col min="1" max="1" width="9.37962962962963" customWidth="1"/>
+    <col min="2" max="2" width="0.648148148148148" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2184,7 +2184,7 @@
     <row r="5" ht="25" customHeight="1" spans="2:7">
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -2201,7 +2201,7 @@
         <v>44246</v>
       </c>
       <c r="G5" s="9">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6" ht="25" customHeight="1" spans="2:7">
@@ -2276,7 +2276,7 @@
     <row r="9" customHeight="1" spans="2:7">
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>16.8</v>
+        <v>18</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>11</v>
@@ -2292,7 +2292,7 @@
         <v>44255</v>
       </c>
       <c r="G9" s="9">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="3:3">
@@ -2315,7 +2315,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2332,7 +2332,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/甘特图.xlsx
+++ b/甘特图.xlsx
@@ -59,11 +59,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="m/d;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -83,38 +83,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -126,43 +98,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -171,9 +106,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,11 +129,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -213,7 +198,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,25 +235,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,19 +367,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,67 +385,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,55 +409,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,11 +460,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,6 +480,36 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,21 +529,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -519,32 +540,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,10 +556,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -568,16 +568,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -586,115 +586,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -853,13 +853,13 @@
                     <c:v>1.7</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>6.8</c:v>
+                    <c:v>7.6</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>4.5</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>0.1</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>0.6</c:v>
@@ -868,7 +868,7 @@
                     <c:v>0.15</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>18</c:v>
+                    <c:v>19.2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2109,7 +2109,7 @@
   <dimension ref="B2:G10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="6"/>
@@ -2161,7 +2161,7 @@
     <row r="4" ht="25" customHeight="1" spans="2:7">
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>6</v>
@@ -2178,7 +2178,7 @@
         <v>44240</v>
       </c>
       <c r="G4" s="9">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="5" ht="25" customHeight="1" spans="2:7">
@@ -2207,7 +2207,7 @@
     <row r="6" ht="25" customHeight="1" spans="2:7">
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>8</v>
@@ -2224,7 +2224,7 @@
         <v>44248</v>
       </c>
       <c r="G6" s="9">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="2:7">
@@ -2276,7 +2276,7 @@
     <row r="9" customHeight="1" spans="2:7">
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19.2</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>11</v>
@@ -2292,7 +2292,7 @@
         <v>44255</v>
       </c>
       <c r="G9" s="9">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="3:3">

--- a/甘特图.xlsx
+++ b/甘特图.xlsx
@@ -59,9 +59,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
@@ -82,55 +82,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,29 +119,84 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,39 +212,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -235,187 +235,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,39 +451,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -499,17 +466,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,6 +501,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -540,11 +534,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,10 +556,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -568,133 +568,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -856,10 +856,10 @@
                     <c:v>7.6</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>4.5</c:v>
+                    <c:v>4.8</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.1</c:v>
+                    <c:v>1.2</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>0.6</c:v>
@@ -868,7 +868,7 @@
                     <c:v>0.15</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>19.2</c:v>
+                    <c:v>20.4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2109,7 +2109,7 @@
   <dimension ref="B2:G10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="6"/>
@@ -2184,7 +2184,7 @@
     <row r="5" ht="25" customHeight="1" spans="2:7">
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -2201,13 +2201,13 @@
         <v>44246</v>
       </c>
       <c r="G5" s="9">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6" ht="25" customHeight="1" spans="2:7">
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>8</v>
@@ -2224,7 +2224,7 @@
         <v>44248</v>
       </c>
       <c r="G6" s="9">
-        <v>0.05</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="2:7">
@@ -2276,7 +2276,7 @@
     <row r="9" customHeight="1" spans="2:7">
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>19.2</v>
+        <v>20.4</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>11</v>
@@ -2292,7 +2292,7 @@
         <v>44255</v>
       </c>
       <c r="G9" s="9">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="3:3">

--- a/甘特图.xlsx
+++ b/甘特图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16428" windowHeight="8675"/>
+    <workbookView windowWidth="18468" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,9 +59,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
@@ -83,6 +83,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -96,8 +103,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,23 +155,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,36 +168,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -196,23 +189,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,25 +235,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,7 +361,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,36 +391,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -319,97 +403,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,8 +468,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -503,6 +505,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -519,17 +530,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,10 +556,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -568,133 +568,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -856,19 +856,19 @@
                     <c:v>7.6</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>4.8</c:v>
+                    <c:v>5.1</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>1.2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.6</c:v>
+                    <c:v>1.2</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>0.15</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>20.4</c:v>
+                    <c:v>21.6</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2184,7 +2184,7 @@
     <row r="5" ht="25" customHeight="1" spans="2:7">
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -2201,7 +2201,7 @@
         <v>44246</v>
       </c>
       <c r="G5" s="9">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="6" ht="25" customHeight="1" spans="2:7">
@@ -2230,7 +2230,7 @@
     <row r="7" ht="25" customHeight="1" spans="2:7">
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>9</v>
@@ -2247,7 +2247,7 @@
         <v>44254</v>
       </c>
       <c r="G7" s="9">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" ht="25" customHeight="1" spans="2:7">
@@ -2276,7 +2276,7 @@
     <row r="9" customHeight="1" spans="2:7">
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>20.4</v>
+        <v>21.6</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>11</v>
@@ -2292,7 +2292,7 @@
         <v>44255</v>
       </c>
       <c r="G9" s="9">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="3:3">

--- a/甘特图.xlsx
+++ b/甘特图.xlsx
@@ -59,11 +59,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="m/d;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -83,14 +83,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -103,23 +103,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,28 +119,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -187,14 +163,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -219,12 +187,44 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -235,187 +235,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,26 +466,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -504,8 +484,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,7 +494,33 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,17 +540,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,145 +556,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -853,22 +853,22 @@
                     <c:v>1.7</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>7.6</c:v>
+                    <c:v>8</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>5.1</c:v>
+                    <c:v>6</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>1.2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1.2</c:v>
+                    <c:v>2.4</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>0.15</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>21.6</c:v>
+                    <c:v>22.8</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2109,7 +2109,7 @@
   <dimension ref="B2:G10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="6"/>
@@ -2161,7 +2161,7 @@
     <row r="4" ht="25" customHeight="1" spans="2:7">
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>6</v>
@@ -2178,13 +2178,13 @@
         <v>44240</v>
       </c>
       <c r="G4" s="9">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="25" customHeight="1" spans="2:7">
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -2201,7 +2201,7 @@
         <v>44246</v>
       </c>
       <c r="G5" s="9">
-        <v>0.85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="25" customHeight="1" spans="2:7">
@@ -2230,7 +2230,7 @@
     <row r="7" ht="25" customHeight="1" spans="2:7">
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>9</v>
@@ -2247,7 +2247,7 @@
         <v>44254</v>
       </c>
       <c r="G7" s="9">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8" ht="25" customHeight="1" spans="2:7">
@@ -2276,7 +2276,7 @@
     <row r="9" customHeight="1" spans="2:7">
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>21.6</v>
+        <v>22.8</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>11</v>
@@ -2292,7 +2292,7 @@
         <v>44255</v>
       </c>
       <c r="G9" s="9">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="3:3">

--- a/甘特图.xlsx
+++ b/甘特图.xlsx
@@ -60,9 +60,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -97,13 +97,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -111,15 +104,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,7 +134,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,6 +172,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -178,53 +225,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -235,13 +235,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,19 +355,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,7 +385,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,90 +403,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -380,42 +416,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,45 +447,6 @@
       </top>
       <bottom style="thin">
         <color theme="0" tint="-0.15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,6 +487,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -548,6 +524,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -556,145 +556,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -859,13 +859,13 @@
                     <c:v>6</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.2</c:v>
+                    <c:v>1.4</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2.4</c:v>
+                    <c:v>4.2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.15</c:v>
+                    <c:v>0.3</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>22.8</c:v>
@@ -2109,7 +2109,7 @@
   <dimension ref="B2:G10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="6"/>
@@ -2207,7 +2207,7 @@
     <row r="6" ht="25" customHeight="1" spans="2:7">
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>8</v>
@@ -2224,13 +2224,13 @@
         <v>44248</v>
       </c>
       <c r="G6" s="9">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="2:7">
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>9</v>
@@ -2247,13 +2247,13 @@
         <v>44254</v>
       </c>
       <c r="G7" s="9">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="8" ht="25" customHeight="1" spans="2:7">
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -2270,7 +2270,7 @@
         <v>44257</v>
       </c>
       <c r="G8" s="9">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:7">

--- a/甘特图.xlsx
+++ b/甘特图.xlsx
@@ -83,58 +83,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,22 +105,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -187,24 +142,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,6 +165,66 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -235,187 +235,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,56 +447,6 @@
       </top>
       <bottom style="thin">
         <color theme="0" tint="-0.15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,6 +484,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -548,6 +522,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -556,10 +556,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -568,133 +568,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -862,7 +862,7 @@
                     <c:v>1.4</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>4.2</c:v>
+                    <c:v>5.7</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>0.3</c:v>
@@ -2109,7 +2109,7 @@
   <dimension ref="B2:G10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="6"/>
@@ -2230,7 +2230,7 @@
     <row r="7" ht="25" customHeight="1" spans="2:7">
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>4.2</v>
+        <v>5.7</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>9</v>
@@ -2247,7 +2247,7 @@
         <v>44254</v>
       </c>
       <c r="G7" s="9">
-        <v>0.7</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="8" ht="25" customHeight="1" spans="2:7">

--- a/甘特图.xlsx
+++ b/甘特图.xlsx
@@ -59,11 +59,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="m/d;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -83,6 +83,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -90,18 +97,17 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -120,13 +126,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -135,10 +148,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -166,53 +187,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,6 +202,29 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -235,187 +235,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,35 +451,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,9 +477,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,13 +510,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,6 +539,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -556,145 +556,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -859,16 +859,16 @@
                     <c:v>6</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.4</c:v>
+                    <c:v>2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>5.7</c:v>
+                    <c:v>6</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>0.3</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>22.8</c:v>
+                    <c:v>24</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2109,7 +2109,7 @@
   <dimension ref="B2:G10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="6"/>
@@ -2207,7 +2207,7 @@
     <row r="6" ht="25" customHeight="1" spans="2:7">
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>8</v>
@@ -2224,13 +2224,13 @@
         <v>44248</v>
       </c>
       <c r="G6" s="9">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="2:7">
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>9</v>
@@ -2247,7 +2247,7 @@
         <v>44254</v>
       </c>
       <c r="G7" s="9">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" ht="25" customHeight="1" spans="2:7">
@@ -2276,7 +2276,7 @@
     <row r="9" customHeight="1" spans="2:7">
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>22.8</v>
+        <v>24</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>11</v>
@@ -2292,7 +2292,7 @@
         <v>44255</v>
       </c>
       <c r="G9" s="9">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="3:3">

--- a/甘特图.xlsx
+++ b/甘特图.xlsx
@@ -59,11 +59,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m/d;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -97,15 +97,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,14 +112,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,16 +135,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -165,7 +167,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,40 +219,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,13 +235,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,169 +373,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,15 +451,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -477,11 +468,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,6 +514,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -524,30 +548,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -556,10 +556,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -568,16 +568,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -586,115 +586,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -850,7 +850,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="7"/>
                   <c:pt idx="0">
-                    <c:v>1.7</c:v>
+                    <c:v>1.8</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>8</c:v>
@@ -865,7 +865,7 @@
                     <c:v>6</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.3</c:v>
+                    <c:v>1.5</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>24</c:v>
@@ -2109,7 +2109,7 @@
   <dimension ref="B2:G10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="6"/>
@@ -2139,7 +2139,7 @@
     <row r="3" ht="25" customHeight="1" spans="2:7">
       <c r="B3">
         <f t="shared" ref="B3:B9" si="0">E3*G3</f>
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>5</v>
@@ -2155,7 +2155,7 @@
         <v>44232</v>
       </c>
       <c r="G3" s="6">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="4" ht="25" customHeight="1" spans="2:7">
@@ -2253,7 +2253,7 @@
     <row r="8" ht="25" customHeight="1" spans="2:7">
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -2270,7 +2270,7 @@
         <v>44257</v>
       </c>
       <c r="G8" s="9">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:7">

--- a/甘特图.xlsx
+++ b/甘特图.xlsx
@@ -59,11 +59,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m/d;@"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -98,76 +98,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,7 +120,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,7 +128,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,6 +139,14 @@
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -225,6 +164,67 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -235,25 +235,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,25 +367,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,30 +409,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -332,90 +416,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,16 +452,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,30 +471,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,8 +493,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,16 +511,40 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,145 +556,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -865,7 +865,7 @@
                     <c:v>6</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.5</c:v>
+                    <c:v>2.4</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>24</c:v>
@@ -2109,7 +2109,7 @@
   <dimension ref="B2:G10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="6"/>
@@ -2253,7 +2253,7 @@
     <row r="8" ht="25" customHeight="1" spans="2:7">
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -2270,7 +2270,7 @@
         <v>44257</v>
       </c>
       <c r="G8" s="9">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:7">
